--- a/mcmaster_excel/Metric_316_Stainless_Steel_Pan_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Metric_316_Stainless_Steel_Pan_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,96 +434,146 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>93923A111</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>$13.04</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,21 +608,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>93923A111</t>
+          <t>93923A112</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$13.04</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -607,21 +665,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>93923A112</t>
+          <t>93923A113</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15.65</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,21 +722,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>93923A113</t>
+          <t>93923A114</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14.35</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -705,21 +779,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>93923A114</t>
+          <t>93923A115</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17.83</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -729,12 +811,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -749,43 +831,91 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>93923A115</t>
+          <t>93923A116</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>93923A117</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,21 +950,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>93923A116</t>
+          <t>93923A118</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.87</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -869,21 +1007,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>93923A117</t>
+          <t>93923A119</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>14.13</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -918,21 +1064,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>93923A118</t>
+          <t>93923A121</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15.22</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -942,12 +1096,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -967,21 +1121,29 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>93923A119</t>
+          <t>93923A122</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21.74</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -991,12 +1153,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1011,43 +1173,91 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>93923A121</t>
+          <t>93923A123</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>23.91</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>93923A124</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>17.39</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1077,26 +1287,34 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>93923A122</t>
+          <t>93923A125</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>23.91</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1131,21 +1349,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>93923A123</t>
+          <t>93923A126</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13.04</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1155,12 +1381,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1180,21 +1406,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>93923A124</t>
+          <t>93923A127</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>17.39</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1204,12 +1438,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1229,21 +1463,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>93923A125</t>
+          <t>93923A128</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>14.13</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1253,12 +1495,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1278,278 +1520,138 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>93923A126</t>
+          <t>93923A129</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14.13</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>17.39</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>93923A131</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DIN 85, ISO 1580</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>93923A127</t>
+          <t>93923A132</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20.65</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>93923A128</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>16.30</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>93923A129</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>17.39</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>93923A131</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>10.87</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>DIN 85, ISO 1580</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>93923A132</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
           <t>13.91</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
